--- a/variables.xlsx
+++ b/variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\autodesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\autogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC23D534-5058-4E7B-94D0-E19879B3DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62652336-CA46-4C72-BC95-8C059BD2D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1180" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diagram_labels" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>syd_spine_01</t>
   </si>
@@ -254,15 +254,6 @@
   </si>
   <si>
     <t># Comment</t>
-  </si>
-  <si>
-    <t>what about this</t>
-  </si>
-  <si>
-    <t>and this one?</t>
-  </si>
-  <si>
-    <t>first crap</t>
   </si>
 </sst>
 </file>
@@ -359,59 +350,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -480,6 +429,48 @@
           <color theme="4"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2132,11 +2123,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4777956D-A1AA-4C3C-82F7-9BA6F67C076A}" name="Table8" displayName="Table8" ref="B20:C22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4777956D-A1AA-4C3C-82F7-9BA6F67C076A}" name="Table8" displayName="Table8" ref="B20:C22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="B20:C22" xr:uid="{4777956D-A1AA-4C3C-82F7-9BA6F67C076A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD67E3C6-D964-4699-84D3-4C7A7857E8E0}" name="key" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7DDEBDEF-F238-4222-B511-69B0370570E2}" name="value" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BD67E3C6-D964-4699-84D3-4C7A7857E8E0}" name="key" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7DDEBDEF-F238-4222-B511-69B0370570E2}" name="value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2410,7 +2401,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2559,7 +2550,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2654,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75972A6-8690-46B5-85D4-FAF77E4C3427}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2715,7 +2706,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2769,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784C9756-10EC-4CD6-B419-7E1573449DAC}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2824,11 +2815,6 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>34</v>
@@ -2878,10 +2864,10 @@
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2889,7 +2875,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2898,29 +2884,19 @@
       <c r="C21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
+      <c r="D22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
